--- a/data/Behavioral/description/ColorVision.xlsx
+++ b/data/Behavioral/description/ColorVision.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Healthy Brain Network\Data Sharing\Data Dictionaries\Public Data Dictionaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/all_data_dicts_Jan_2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="15825" tabRatio="500"/>
+    <workbookView xWindow="8660" yWindow="460" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
   <si>
     <t>CV_Plate_01</t>
   </si>
@@ -273,12 +276,35 @@
   </si>
   <si>
     <t>Ishihara Color Vision Test</t>
+  </si>
+  <si>
+    <t>CV_Complete</t>
+  </si>
+  <si>
+    <t>CV_Incomplete_Reason</t>
+  </si>
+  <si>
+    <t>Was Color Vision Test completed?</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>0=Incomplete, 1=Complete</t>
+  </si>
+  <si>
+    <t>If incomplete, for what reason?</t>
+  </si>
+  <si>
+    <t>Dropped HBN, 
+Lost to Follow Up, 
+Other Reason</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -323,6 +349,7 @@
       <sz val="16"/>
       <color rgb="FF0067A0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -367,7 +394,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -387,8 +414,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -397,8 +426,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -408,6 +442,7 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -417,6 +452,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -754,17 +790,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.25" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="73.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -773,7 +810,7 @@
       </c>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -790,51 +827,55 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>78</v>
@@ -843,26 +884,26 @@
         <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>78</v>
@@ -871,26 +912,26 @@
         <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>78</v>
@@ -899,26 +940,26 @@
         <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>78</v>
@@ -927,26 +968,26 @@
         <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>78</v>
@@ -955,26 +996,26 @@
         <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>78</v>
@@ -983,26 +1024,26 @@
         <v>62</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>78</v>
@@ -1011,26 +1052,26 @@
         <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>78</v>
@@ -1039,26 +1080,26 @@
         <v>62</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
         <v>78</v>
@@ -1067,26 +1108,26 @@
         <v>62</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
         <v>78</v>
@@ -1095,54 +1136,54 @@
         <v>62</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>55</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>22</v>
       </c>
-      <c r="C25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
       </c>
       <c r="C28" t="s">
         <v>78</v>
@@ -1151,61 +1192,84 @@
         <v>74</v>
       </c>
       <c r="E28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+    <row r="32" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="C32" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>61</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>28</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>